--- a/data-import/data_mata_pelajaran.xlsx
+++ b/data-import/data_mata_pelajaran.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -438,13 +438,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Bahasa Daerah</v>
+        <v>BK</v>
       </c>
       <c r="B3" t="str">
-        <v>Bahasa Daerah</v>
+        <v>Bimbingan Konseling</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="str">
         <v>SEMUA</v>
@@ -455,10 +455,10 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Bahasa Inggris</v>
+        <v>Bahasa Daerah</v>
       </c>
       <c r="B4" t="str">
-        <v>Bahasa Inggris</v>
+        <v>Bahasa Daerah</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -472,10 +472,10 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>DPK AK</v>
+        <v>Bahasa Inggris</v>
       </c>
       <c r="B5" t="str">
-        <v>Dasar Program Keahlian AK</v>
+        <v>Bahasa Inggris</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -489,10 +489,10 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>DPK TKJ</v>
+        <v>DPK AK</v>
       </c>
       <c r="B6" t="str">
-        <v>Dasar Program Keahlian TKJ</v>
+        <v>Dasar Program Keahlian AK</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -506,10 +506,10 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>DPK TKR</v>
+        <v>DPK TKJ</v>
       </c>
       <c r="B7" t="str">
-        <v>Dasar Program Keahlian TKR</v>
+        <v>Dasar Program Keahlian TKJ</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -523,10 +523,10 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>IPAS</v>
+        <v>DPK TKR</v>
       </c>
       <c r="B8" t="str">
-        <v>IPAS</v>
+        <v>Dasar Program Keahlian TKR</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -540,10 +540,10 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Informatika</v>
+        <v>IPAS</v>
       </c>
       <c r="B9" t="str">
-        <v>Informatika</v>
+        <v>IPAS</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -557,10 +557,10 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>KK AK</v>
+        <v>Informatika</v>
       </c>
       <c r="B10" t="str">
-        <v>Konsentrasi Keahlian AK</v>
+        <v>Informatika</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -574,10 +574,10 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>KK TKJ</v>
+        <v>KK AK</v>
       </c>
       <c r="B11" t="str">
-        <v>Konsentrasi Keahlian TKJ</v>
+        <v>Konsentrasi Keahlian AK</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -591,10 +591,10 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>KK TKR</v>
+        <v>KK TKJ</v>
       </c>
       <c r="B12" t="str">
-        <v>Konsentrasi Keahlian TKR</v>
+        <v>Konsentrasi Keahlian TKJ</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -608,10 +608,10 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>MTK</v>
+        <v>KK TKR</v>
       </c>
       <c r="B13" t="str">
-        <v>Matematika</v>
+        <v>Konsentrasi Keahlian TKR</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -625,10 +625,10 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Mapel Pilihan AK</v>
+        <v>MTK</v>
       </c>
       <c r="B14" t="str">
-        <v>Mapel Pilihan AK</v>
+        <v>Matematika</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -642,10 +642,10 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Mapel Pilihan TKJ</v>
+        <v>Mapel Pilihan AK</v>
       </c>
       <c r="B15" t="str">
-        <v>Mapel Pilihan TKJ</v>
+        <v>Mapel Pilihan AK</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -659,10 +659,10 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Mapel Pilihan TKR</v>
+        <v>Mapel Pilihan TKJ</v>
       </c>
       <c r="B16" t="str">
-        <v>Mapel Pilihan TKR</v>
+        <v>Mapel Pilihan TKJ</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -676,10 +676,10 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>PAI</v>
+        <v>Mapel Pilihan TKR</v>
       </c>
       <c r="B17" t="str">
-        <v>PAI</v>
+        <v>Mapel Pilihan TKR</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -693,10 +693,10 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>PAK</v>
+        <v>PAI</v>
       </c>
       <c r="B18" t="str">
-        <v>PAK</v>
+        <v>PAI</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -710,10 +710,10 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>PJOK</v>
+        <v>PAK</v>
       </c>
       <c r="B19" t="str">
-        <v>PJOK</v>
+        <v>PAK</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -727,10 +727,10 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>PKKWU AK</v>
+        <v>PJOK</v>
       </c>
       <c r="B20" t="str">
-        <v>PKKWU AK</v>
+        <v>PJOK</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -744,10 +744,10 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>PKKWU TKJ</v>
+        <v>PKKWU AK</v>
       </c>
       <c r="B21" t="str">
-        <v>PKKWU TKJ</v>
+        <v>PKKWU AK</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -761,10 +761,10 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>PKKWU TKR</v>
+        <v>PKKWU TKJ</v>
       </c>
       <c r="B22" t="str">
-        <v>PKKWU TKR</v>
+        <v>PKKWU TKJ</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -778,10 +778,10 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>PPKN</v>
+        <v>PKKWU TKR</v>
       </c>
       <c r="B23" t="str">
-        <v>Pendidikan Pancasila dan Kewarganegaraan</v>
+        <v>PKKWU TKR</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -795,10 +795,10 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Pramuka</v>
+        <v>PPKN</v>
       </c>
       <c r="B24" t="str">
-        <v>Pramuka</v>
+        <v>Pendidikan Pancasila dan Kewarganegaraan</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -812,10 +812,10 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Sejarah Indonesia</v>
+        <v>Pramuka</v>
       </c>
       <c r="B25" t="str">
-        <v>Sejarah Indonesia</v>
+        <v>Pramuka</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -829,24 +829,41 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
+        <v>Sejarah Indonesia</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Sejarah Indonesia</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" t="str">
+        <v>SEMUA</v>
+      </c>
+      <c r="E26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
         <v>Seni Budaya</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B27" t="str">
         <v>Seni Budaya</v>
       </c>
-      <c r="C26">
-        <v>4</v>
-      </c>
-      <c r="D26" t="str">
-        <v>SEMUA</v>
-      </c>
-      <c r="E26" t="str">
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27" t="str">
+        <v>SEMUA</v>
+      </c>
+      <c r="E27" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E26"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E27"/>
   </ignoredErrors>
 </worksheet>
 </file>